--- a/simfin/debt/debt_structure.xlsx
+++ b/simfin/debt/debt_structure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80002036\Documents\GitHub\simfin\simfin\debt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E479B36A-028A-45AC-9DD3-75C66DB6A2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D35F69D-BF9A-468B-8925-360552404AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{78A41111-2330-B544-A089-D809F73C03CC}"/>
   </bookViews>
@@ -16,7 +16,10 @@
     <sheet name="data" sheetId="2" r:id="rId1"/>
     <sheet name="inputs" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029" iterate="1" iterateCount="20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="43">
   <si>
     <t>https://cdn-contenu.quebec.ca/cdn-contenu/adm/min/finances/publications-adm/Emprunts/EMPFR_te20210331.pdf?1629989314</t>
   </si>
@@ -101,48 +104,9 @@
     <t>remaining_yr</t>
   </si>
   <si>
-    <t>2057.5</t>
-  </si>
-  <si>
-    <t>10592.06</t>
-  </si>
-  <si>
-    <t>9417.78</t>
-  </si>
-  <si>
-    <t>9487.9</t>
-  </si>
-  <si>
-    <t>11406.3</t>
-  </si>
-  <si>
-    <t>10892.6</t>
-  </si>
-  <si>
-    <t>7475.9</t>
-  </si>
-  <si>
-    <t>7975.9</t>
-  </si>
-  <si>
-    <t>1257.5</t>
-  </si>
-  <si>
-    <t>1886.25</t>
-  </si>
-  <si>
-    <t>4200.2</t>
-  </si>
-  <si>
-    <t>4082.9</t>
-  </si>
-  <si>
     <t>0.05</t>
   </si>
   <si>
-    <t>0.00931361278556013</t>
-  </si>
-  <si>
     <t>0.02254768</t>
   </si>
   <si>
@@ -152,9 +116,6 @@
     <t>0.02402795</t>
   </si>
   <si>
-    <t>0.03748004</t>
-  </si>
-  <si>
     <t>0.035</t>
   </si>
   <si>
@@ -170,9 +131,6 @@
     <t>0.025</t>
   </si>
   <si>
-    <t>0.0217838</t>
-  </si>
-  <si>
     <t>0.02379836</t>
   </si>
   <si>
@@ -204,6 +162,12 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>0.008858482</t>
+  </si>
+  <si>
+    <t>0.02163968</t>
   </si>
 </sst>
 </file>
@@ -313,6 +277,264 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="4. calculs_coupons_calibrated"/>
+      <sheetName val="3. calculs_coupons_collapsed"/>
+      <sheetName val="2. calculs_coupons"/>
+      <sheetName val="1. raw"/>
+      <sheetName val="Calibration"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="48">
+          <cell r="D48">
+            <v>9516.338023914097</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="D49">
+            <v>3015</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="D50">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="D51">
+            <v>2057.5</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="D52">
+            <v>10092.1</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="D53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="D54">
+            <v>6900</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="D55">
+            <v>9417.7800000000007</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="D56">
+            <v>9487.9</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="D57">
+            <v>11406.3</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="D58">
+            <v>8515</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="D59">
+            <v>11392.6</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="D60">
+            <v>7475.9</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="D61">
+            <v>7975.9</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="D62">
+            <v>16007</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="D63">
+            <v>3000</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="D64">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="D65">
+            <v>1257.5</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="D66">
+            <v>1257.5</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="D67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="D68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="D69">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="D70">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="D71">
+            <v>1886.25</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="D72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="D73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="D74">
+            <v>4200.2</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="D75">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="D76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="D77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="D78">
+            <v>4082.9</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="D79">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="D80">
+            <v>5000</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="D81">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="D82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="D83">
+            <v>9200</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="D84">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="D85">
+            <v>7500</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="D86">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="D87">
+            <v>10000</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="D88">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="D89">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="D90">
+            <v>11650</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="D91">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="D92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="D93">
+            <v>12500</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="7">
+          <cell r="B7">
+            <v>218468</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -612,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC2229B-CB5B-0C41-A2BF-077C4A074A30}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -633,7 +855,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D1">
         <v>2021</v>
@@ -664,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -679,7 +901,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -694,7 +916,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -709,7 +931,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -731,13 +953,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -745,13 +967,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -759,13 +981,13 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,13 +995,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -787,13 +1009,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -801,13 +1023,13 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -815,13 +1037,13 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -829,13 +1051,13 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -843,13 +1065,13 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -857,27 +1079,27 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>48</v>
+      <c r="D18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -885,13 +1107,13 @@
         <v>30</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="D19">
-        <v>0</v>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,13 +1121,13 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -913,13 +1135,13 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>50</v>
+      <c r="D21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -927,7 +1149,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -941,7 +1163,7 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -955,7 +1177,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -969,13 +1191,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D25">
-        <v>0</v>
+      <c r="D25" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -983,13 +1205,13 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>49</v>
+      <c r="D26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,7 +1219,7 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -1011,13 +1233,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
-      <c r="D28">
-        <v>0</v>
+      <c r="D28" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,13 +1247,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>51</v>
+      <c r="D29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,7 +1261,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
@@ -1053,7 +1275,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -1067,13 +1289,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="D32">
-        <v>0</v>
+      <c r="D32" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1081,13 +1303,13 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>52</v>
+      <c r="D33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,13 +1317,13 @@
         <v>30</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
       </c>
-      <c r="D34">
-        <v>0</v>
+      <c r="D34" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,13 +1331,13 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>33</v>
+      <c r="D35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,7 +1345,7 @@
         <v>30</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
@@ -1137,13 +1359,13 @@
         <v>30</v>
       </c>
       <c r="B37">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
       </c>
-      <c r="D37">
-        <v>0</v>
+      <c r="D37" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1151,13 +1373,13 @@
         <v>30</v>
       </c>
       <c r="B38">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>33</v>
+      <c r="D38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1165,13 +1387,13 @@
         <v>30</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
-      <c r="D39">
-        <v>0</v>
+      <c r="D39" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1179,13 +1401,13 @@
         <v>30</v>
       </c>
       <c r="B40">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>53</v>
+      <c r="D40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1193,13 +1415,13 @@
         <v>30</v>
       </c>
       <c r="B41">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
-      <c r="D41">
-        <v>0</v>
+      <c r="D41" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1207,13 +1429,13 @@
         <v>30</v>
       </c>
       <c r="B42">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>39</v>
+      <c r="D42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1221,7 +1443,7 @@
         <v>30</v>
       </c>
       <c r="B43">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -1235,13 +1457,13 @@
         <v>30</v>
       </c>
       <c r="B44">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
       </c>
-      <c r="D44">
-        <v>0</v>
+      <c r="D44" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1249,13 +1471,13 @@
         <v>30</v>
       </c>
       <c r="B45">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>39</v>
+      <c r="D45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,7 +1485,7 @@
         <v>30</v>
       </c>
       <c r="B46">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -1277,32 +1499,33 @@
         <v>30</v>
       </c>
       <c r="B47">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
       </c>
-      <c r="D47">
-        <v>0</v>
+      <c r="D47" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B48">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>54</v>
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D48/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>11220</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1311,7 +1534,8 @@
         <v>15</v>
       </c>
       <c r="D49">
-        <v>3015</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D49/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>3555</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,13 +1543,14 @@
         <v>5</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
         <v>15</v>
       </c>
       <c r="D50">
-        <v>3015</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D50/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>590</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,13 +1558,14 @@
         <v>5</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
       </c>
       <c r="D51">
-        <v>500</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D51/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>2426</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,13 +1573,14 @@
         <v>5</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
       </c>
-      <c r="D52" t="s">
-        <v>21</v>
+      <c r="D52">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D52/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>11899</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1361,27 +1588,29 @@
         <v>5</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
       </c>
-      <c r="D53" t="s">
-        <v>22</v>
+      <c r="D53">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D53/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D54/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>8135</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1389,13 +1618,14 @@
         <v>10</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
       </c>
       <c r="D55">
-        <v>6900</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D55/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>11104</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1403,13 +1633,14 @@
         <v>10</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
       </c>
-      <c r="D56" t="s">
-        <v>23</v>
+      <c r="D56">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D56/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>11187</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1417,13 +1648,14 @@
         <v>10</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
       </c>
-      <c r="D57" t="s">
-        <v>24</v>
+      <c r="D57">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D57/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>13448</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1431,13 +1663,14 @@
         <v>10</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
       </c>
-      <c r="D58" t="s">
-        <v>25</v>
+      <c r="D58">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D58/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>10039</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1445,13 +1678,14 @@
         <v>10</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59">
-        <v>8515</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D59/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>13432</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1459,13 +1693,14 @@
         <v>10</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
       </c>
-      <c r="D60" t="s">
-        <v>26</v>
+      <c r="D60">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D60/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>8814</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1473,13 +1708,14 @@
         <v>10</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
       </c>
-      <c r="D61" t="s">
-        <v>27</v>
+      <c r="D61">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D61/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>9404</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,13 +1723,14 @@
         <v>10</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
       </c>
-      <c r="D62" t="s">
-        <v>28</v>
+      <c r="D62">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D62/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>18873</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,27 +1738,29 @@
         <v>10</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
       </c>
       <c r="D63">
-        <v>16007</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D63/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>3537</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
       </c>
       <c r="D64">
-        <v>3000</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D64/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,13 +1768,14 @@
         <v>30</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D65/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>1483</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,13 +1783,14 @@
         <v>30</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
       </c>
-      <c r="D66" t="s">
-        <v>29</v>
+      <c r="D66">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D66/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>1483</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,13 +1798,14 @@
         <v>30</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
       </c>
-      <c r="D67" t="s">
-        <v>29</v>
+      <c r="D67">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D67/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1571,12 +1813,13 @@
         <v>30</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
       </c>
       <c r="D68">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D68/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1585,12 +1828,13 @@
         <v>30</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
       </c>
       <c r="D69">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D69/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1599,12 +1843,13 @@
         <v>30</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
       </c>
       <c r="D70">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D70/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1613,13 +1858,14 @@
         <v>30</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D71/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>2224</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1627,13 +1873,14 @@
         <v>30</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
         <v>15</v>
       </c>
-      <c r="D72" t="s">
-        <v>30</v>
+      <c r="D72">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D72/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1641,12 +1888,13 @@
         <v>30</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
       </c>
       <c r="D73">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D73/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1655,13 +1903,14 @@
         <v>30</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D74/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>4952</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1669,13 +1918,14 @@
         <v>30</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
         <v>15</v>
       </c>
-      <c r="D75" t="s">
-        <v>31</v>
+      <c r="D75">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D75/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1683,12 +1933,13 @@
         <v>30</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
       </c>
       <c r="D76">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D76/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1697,12 +1948,13 @@
         <v>30</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
       </c>
       <c r="D77">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D77/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1711,13 +1963,14 @@
         <v>30</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D78/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>4814</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1725,13 +1978,14 @@
         <v>30</v>
       </c>
       <c r="B79">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
         <v>15</v>
       </c>
-      <c r="D79" t="s">
-        <v>32</v>
+      <c r="D79">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D79/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1739,13 +1993,14 @@
         <v>30</v>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
         <v>15</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D80/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>5895</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1753,13 +2008,14 @@
         <v>30</v>
       </c>
       <c r="B81">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
       </c>
       <c r="D81">
-        <v>5000</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D81/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,12 +2023,13 @@
         <v>30</v>
       </c>
       <c r="B82">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
         <v>15</v>
       </c>
       <c r="D82">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D82/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1781,13 +2038,14 @@
         <v>30</v>
       </c>
       <c r="B83">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D83/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>10847</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,13 +2053,14 @@
         <v>30</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C84" t="s">
         <v>15</v>
       </c>
       <c r="D84">
-        <v>9200</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D84/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1809,13 +2068,14 @@
         <v>30</v>
       </c>
       <c r="B85">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D85/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>8843</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1823,13 +2083,14 @@
         <v>30</v>
       </c>
       <c r="B86">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C86" t="s">
         <v>15</v>
       </c>
       <c r="D86">
-        <v>7500</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D86/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1837,13 +2098,14 @@
         <v>30</v>
       </c>
       <c r="B87">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
         <v>15</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D87/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>11790</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1851,13 +2113,14 @@
         <v>30</v>
       </c>
       <c r="B88">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C88" t="s">
         <v>15</v>
       </c>
       <c r="D88">
-        <v>10000</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D88/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1865,12 +2128,13 @@
         <v>30</v>
       </c>
       <c r="B89">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
         <v>15</v>
       </c>
       <c r="D89">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D89/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1879,13 +2143,14 @@
         <v>30</v>
       </c>
       <c r="B90">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C90" t="s">
         <v>15</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D90/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>13736</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1893,13 +2158,14 @@
         <v>30</v>
       </c>
       <c r="B91">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
         <v>15</v>
       </c>
       <c r="D91">
-        <v>11650</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D91/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1907,12 +2173,13 @@
         <v>30</v>
       </c>
       <c r="B92">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
         <v>15</v>
       </c>
       <c r="D92">
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D92/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1921,27 +2188,14 @@
         <v>30</v>
       </c>
       <c r="B93">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C93" t="s">
         <v>15</v>
       </c>
       <c r="D93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>30</v>
-      </c>
-      <c r="B94">
-        <v>30</v>
-      </c>
-      <c r="C94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94">
-        <v>12500</v>
+        <f>ROUND('[1]3. calculs_coupons_collapsed'!D93/SUM('[1]3. calculs_coupons_collapsed'!D$48:D$93)*[1]Calibration!$B$7,0)</f>
+        <v>14738</v>
       </c>
     </row>
   </sheetData>

--- a/simfin/debt/debt_structure.xlsx
+++ b/simfin/debt/debt_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80002036\Documents\GitHub\simfin\simfin\debt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D35F69D-BF9A-468B-8925-360552404AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D36315-43E8-4ADC-BC3E-479A38D99C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{78A41111-2330-B544-A089-D809F73C03CC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="44">
   <si>
     <t>https://cdn-contenu.quebec.ca/cdn-contenu/adm/min/finances/publications-adm/Emprunts/EMPFR_te20210331.pdf?1629989314</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>0.02163968</t>
+  </si>
+  <si>
+    <t>0.005</t>
   </si>
 </sst>
 </file>
@@ -290,7 +293,7 @@
       <sheetName val="Calibration"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="48">
           <cell r="D48">
@@ -523,8 +526,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="7">
           <cell r="B7">
@@ -837,7 +840,7 @@
   <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -871,8 +874,8 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
